--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DSA_450\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA\DSA_450\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A12524-37B9-4D74-87A9-A25B9588649A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="467">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1427,16 +1422,16 @@
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
+    <t xml:space="preserve">TODO : heaps in MOSH DSA </t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10">
     <font>
       <sz val="12"/>
@@ -1508,13 +1503,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1524,11 +1519,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1545,9 +1535,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1571,18 +1561,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Warning Text" xfId="3" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1893,11 +1882,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1939,7 +1928,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
@@ -1950,7 +1939,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
@@ -1961,7 +1950,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -1972,7 +1961,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -1983,7 +1972,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -1993,9 +1982,6 @@
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="12" spans="1:3" ht="21">
       <c r="A12" s="5" t="s">
@@ -2004,9 +1990,6 @@
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>465</v>
-      </c>
     </row>
     <row r="13" spans="1:3" ht="21">
       <c r="A13" s="5" t="s">
@@ -2015,9 +1998,6 @@
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>465</v>
-      </c>
     </row>
     <row r="14" spans="1:3" ht="21">
       <c r="A14" s="5" t="s">
@@ -2026,7 +2006,7 @@
       <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2037,7 +2017,7 @@
       <c r="B15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2048,9 +2028,6 @@
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>465</v>
-      </c>
     </row>
     <row r="17" spans="1:3" ht="21">
       <c r="A17" s="5" t="s">
@@ -2059,7 +2036,7 @@
       <c r="B17" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2069,9 +2046,6 @@
       </c>
       <c r="B18" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21">
@@ -2347,8 +2321,8 @@
       <c r="B44" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>4</v>
+      <c r="C44" s="13" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="21">
@@ -2358,8 +2332,8 @@
       <c r="B45" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>4</v>
+      <c r="C45" s="13" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="21">
@@ -2446,9 +2420,7 @@
       <c r="B53" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="C53" s="4"/>
     </row>
     <row r="55" spans="1:3" ht="21">
       <c r="A55" s="5"/>
@@ -2462,8 +2434,8 @@
       <c r="B56" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>4</v>
+      <c r="C56" s="13" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
@@ -2473,8 +2445,8 @@
       <c r="B57" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>4</v>
+      <c r="C57" s="13" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
@@ -2484,8 +2456,8 @@
       <c r="B58" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>4</v>
+      <c r="C58" s="13" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
@@ -6967,452 +6939,452 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
-    <hyperlink ref="B8" r:id="rId3"/>
-    <hyperlink ref="B9" r:id="rId4"/>
-    <hyperlink ref="B10" r:id="rId5"/>
-    <hyperlink ref="B11" r:id="rId6"/>
-    <hyperlink ref="B12" r:id="rId7"/>
-    <hyperlink ref="B13" r:id="rId8"/>
-    <hyperlink ref="B14" r:id="rId9"/>
-    <hyperlink ref="B15" r:id="rId10"/>
-    <hyperlink ref="B16" r:id="rId11"/>
-    <hyperlink ref="B17" r:id="rId12"/>
-    <hyperlink ref="B18" r:id="rId13"/>
-    <hyperlink ref="B19" r:id="rId14"/>
-    <hyperlink ref="B20" r:id="rId15"/>
-    <hyperlink ref="B21" r:id="rId16"/>
-    <hyperlink ref="B22" r:id="rId17"/>
-    <hyperlink ref="B23" r:id="rId18"/>
-    <hyperlink ref="B24" r:id="rId19"/>
-    <hyperlink ref="B25" r:id="rId20"/>
-    <hyperlink ref="B26" r:id="rId21"/>
-    <hyperlink ref="B27" r:id="rId22"/>
-    <hyperlink ref="B28" r:id="rId23"/>
-    <hyperlink ref="B29" r:id="rId24"/>
-    <hyperlink ref="B30" r:id="rId25"/>
-    <hyperlink ref="B31" r:id="rId26"/>
-    <hyperlink ref="B32" r:id="rId27"/>
-    <hyperlink ref="B33" r:id="rId28"/>
-    <hyperlink ref="B34" r:id="rId29"/>
-    <hyperlink ref="B35" r:id="rId30"/>
-    <hyperlink ref="B36" r:id="rId31"/>
-    <hyperlink ref="B37" r:id="rId32"/>
-    <hyperlink ref="B38" r:id="rId33"/>
-    <hyperlink ref="B39" r:id="rId34"/>
-    <hyperlink ref="B40" r:id="rId35"/>
-    <hyperlink ref="B41" r:id="rId36"/>
-    <hyperlink ref="B44" r:id="rId37"/>
-    <hyperlink ref="B45" r:id="rId38"/>
-    <hyperlink ref="B46" r:id="rId39"/>
-    <hyperlink ref="B47" r:id="rId40"/>
-    <hyperlink ref="B48" r:id="rId41"/>
-    <hyperlink ref="B49" r:id="rId42"/>
-    <hyperlink ref="B50" r:id="rId43"/>
-    <hyperlink ref="B51" r:id="rId44"/>
-    <hyperlink ref="B52" r:id="rId45"/>
-    <hyperlink ref="B53" r:id="rId46"/>
-    <hyperlink ref="B56" r:id="rId47"/>
-    <hyperlink ref="B57" r:id="rId48"/>
-    <hyperlink ref="B58" r:id="rId49"/>
-    <hyperlink ref="B60" r:id="rId50"/>
-    <hyperlink ref="B61" r:id="rId51"/>
-    <hyperlink ref="B62" r:id="rId52"/>
-    <hyperlink ref="B63" r:id="rId53"/>
-    <hyperlink ref="B64" r:id="rId54"/>
-    <hyperlink ref="B65" r:id="rId55"/>
-    <hyperlink ref="B66" r:id="rId56"/>
-    <hyperlink ref="B67" r:id="rId57"/>
-    <hyperlink ref="B68" r:id="rId58"/>
-    <hyperlink ref="B69" r:id="rId59"/>
-    <hyperlink ref="B70" r:id="rId60"/>
-    <hyperlink ref="B71" r:id="rId61"/>
-    <hyperlink ref="B72" r:id="rId62"/>
-    <hyperlink ref="B73" r:id="rId63"/>
-    <hyperlink ref="B74" r:id="rId64"/>
-    <hyperlink ref="B75" r:id="rId65"/>
-    <hyperlink ref="B76" r:id="rId66"/>
-    <hyperlink ref="B77" r:id="rId67"/>
-    <hyperlink ref="B78" r:id="rId68"/>
-    <hyperlink ref="B79" r:id="rId69"/>
-    <hyperlink ref="B80" r:id="rId70"/>
-    <hyperlink ref="B81" r:id="rId71"/>
-    <hyperlink ref="B82" r:id="rId72"/>
-    <hyperlink ref="B83" r:id="rId73"/>
-    <hyperlink ref="B84" r:id="rId74"/>
-    <hyperlink ref="B85" r:id="rId75"/>
-    <hyperlink ref="B86" r:id="rId76"/>
-    <hyperlink ref="B87" r:id="rId77"/>
-    <hyperlink ref="B88" r:id="rId78"/>
-    <hyperlink ref="B89" r:id="rId79"/>
-    <hyperlink ref="B90" r:id="rId80"/>
-    <hyperlink ref="B91" r:id="rId81"/>
-    <hyperlink ref="B92" r:id="rId82"/>
-    <hyperlink ref="B93" r:id="rId83"/>
-    <hyperlink ref="B94" r:id="rId84"/>
-    <hyperlink ref="B95" r:id="rId85"/>
-    <hyperlink ref="B96" r:id="rId86"/>
-    <hyperlink ref="B97" r:id="rId87"/>
-    <hyperlink ref="B98" r:id="rId88"/>
-    <hyperlink ref="B101" r:id="rId89"/>
-    <hyperlink ref="B102" r:id="rId90"/>
-    <hyperlink ref="B103" r:id="rId91"/>
-    <hyperlink ref="B104" r:id="rId92"/>
-    <hyperlink ref="B106" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance."/>
-    <hyperlink ref="B107" r:id="rId94"/>
-    <hyperlink ref="B108" r:id="rId95"/>
-    <hyperlink ref="B109" r:id="rId96"/>
-    <hyperlink ref="B110" r:id="rId97"/>
-    <hyperlink ref="B111" r:id="rId98"/>
-    <hyperlink ref="B113" r:id="rId99"/>
-    <hyperlink ref="B114" r:id="rId100"/>
-    <hyperlink ref="B115" r:id="rId101"/>
-    <hyperlink ref="B116" r:id="rId102"/>
-    <hyperlink ref="B117" r:id="rId103"/>
-    <hyperlink ref="B118" r:id="rId104"/>
-    <hyperlink ref="B119" r:id="rId105"/>
-    <hyperlink ref="B120" r:id="rId106"/>
-    <hyperlink ref="B121" r:id="rId107"/>
-    <hyperlink ref="B122" r:id="rId108"/>
-    <hyperlink ref="B123" r:id="rId109"/>
-    <hyperlink ref="B124" r:id="rId110"/>
-    <hyperlink ref="B125" r:id="rId111"/>
-    <hyperlink ref="B126" r:id="rId112"/>
-    <hyperlink ref="B127" r:id="rId113"/>
-    <hyperlink ref="B128" r:id="rId114"/>
-    <hyperlink ref="B129" r:id="rId115"/>
-    <hyperlink ref="B130" r:id="rId116"/>
-    <hyperlink ref="B131" r:id="rId117"/>
-    <hyperlink ref="B132" r:id="rId118"/>
-    <hyperlink ref="B133" r:id="rId119"/>
-    <hyperlink ref="B134" r:id="rId120"/>
-    <hyperlink ref="B135" r:id="rId121"/>
-    <hyperlink ref="B136" r:id="rId122"/>
-    <hyperlink ref="B105" r:id="rId123"/>
-    <hyperlink ref="B112" r:id="rId124"/>
-    <hyperlink ref="B139" r:id="rId125"/>
-    <hyperlink ref="B140" r:id="rId126"/>
-    <hyperlink ref="B141" r:id="rId127"/>
-    <hyperlink ref="B142" r:id="rId128"/>
-    <hyperlink ref="B143" r:id="rId129"/>
-    <hyperlink ref="B144" r:id="rId130"/>
-    <hyperlink ref="B145" r:id="rId131"/>
-    <hyperlink ref="B146" r:id="rId132"/>
-    <hyperlink ref="B147" r:id="rId133"/>
-    <hyperlink ref="B148" r:id="rId134"/>
-    <hyperlink ref="B149" r:id="rId135"/>
-    <hyperlink ref="B150" r:id="rId136"/>
-    <hyperlink ref="B151" r:id="rId137"/>
-    <hyperlink ref="B152" r:id="rId138"/>
-    <hyperlink ref="B153" r:id="rId139"/>
-    <hyperlink ref="B154" r:id="rId140"/>
-    <hyperlink ref="B155" r:id="rId141"/>
-    <hyperlink ref="B156" r:id="rId142"/>
-    <hyperlink ref="B157" r:id="rId143"/>
-    <hyperlink ref="B158" r:id="rId144"/>
-    <hyperlink ref="B159" r:id="rId145"/>
-    <hyperlink ref="B160" r:id="rId146"/>
-    <hyperlink ref="B161" r:id="rId147"/>
-    <hyperlink ref="B162" r:id="rId148"/>
-    <hyperlink ref="B163" r:id="rId149"/>
-    <hyperlink ref="B166" r:id="rId150"/>
-    <hyperlink ref="B167" r:id="rId151"/>
-    <hyperlink ref="B168" r:id="rId152"/>
-    <hyperlink ref="B169" r:id="rId153"/>
-    <hyperlink ref="B170" r:id="rId154"/>
-    <hyperlink ref="B171" r:id="rId155"/>
-    <hyperlink ref="B172" r:id="rId156"/>
-    <hyperlink ref="B173" r:id="rId157"/>
-    <hyperlink ref="B174" r:id="rId158"/>
-    <hyperlink ref="B177" r:id="rId159"/>
-    <hyperlink ref="B178" r:id="rId160"/>
-    <hyperlink ref="B179" r:id="rId161"/>
-    <hyperlink ref="B180" r:id="rId162"/>
-    <hyperlink ref="B181" r:id="rId163"/>
-    <hyperlink ref="B182" r:id="rId164"/>
-    <hyperlink ref="B183" r:id="rId165"/>
-    <hyperlink ref="B184" r:id="rId166"/>
-    <hyperlink ref="B185" r:id="rId167"/>
-    <hyperlink ref="B186" r:id="rId168"/>
-    <hyperlink ref="B187" r:id="rId169"/>
-    <hyperlink ref="B188" r:id="rId170"/>
-    <hyperlink ref="B189" r:id="rId171"/>
-    <hyperlink ref="B190" r:id="rId172"/>
-    <hyperlink ref="B191" r:id="rId173"/>
-    <hyperlink ref="B192" r:id="rId174"/>
-    <hyperlink ref="B193" r:id="rId175"/>
-    <hyperlink ref="B194" r:id="rId176"/>
-    <hyperlink ref="B195" r:id="rId177"/>
-    <hyperlink ref="B196" r:id="rId178"/>
-    <hyperlink ref="B197" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010."/>
-    <hyperlink ref="B198" r:id="rId180"/>
-    <hyperlink ref="B199" r:id="rId181"/>
-    <hyperlink ref="B200" r:id="rId182"/>
-    <hyperlink ref="B201" r:id="rId183"/>
-    <hyperlink ref="B202" r:id="rId184"/>
-    <hyperlink ref="B203" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not."/>
-    <hyperlink ref="B204" r:id="rId186"/>
-    <hyperlink ref="B205" r:id="rId187"/>
-    <hyperlink ref="B206" r:id="rId188"/>
-    <hyperlink ref="B207" r:id="rId189"/>
-    <hyperlink ref="B208" r:id="rId190"/>
-    <hyperlink ref="B209" r:id="rId191"/>
-    <hyperlink ref="B210" r:id="rId192"/>
-    <hyperlink ref="B211" r:id="rId193"/>
-    <hyperlink ref="B214" r:id="rId194"/>
-    <hyperlink ref="B215" r:id="rId195"/>
-    <hyperlink ref="B216" r:id="rId196"/>
-    <hyperlink ref="B217" r:id="rId197"/>
-    <hyperlink ref="B218" r:id="rId198"/>
-    <hyperlink ref="B219" r:id="rId199"/>
-    <hyperlink ref="B220" r:id="rId200"/>
-    <hyperlink ref="B221" r:id="rId201"/>
-    <hyperlink ref="B222" r:id="rId202"/>
-    <hyperlink ref="B223" r:id="rId203"/>
-    <hyperlink ref="B224" r:id="rId204"/>
-    <hyperlink ref="B225" r:id="rId205"/>
-    <hyperlink ref="B226" r:id="rId206"/>
-    <hyperlink ref="B227" r:id="rId207"/>
-    <hyperlink ref="B228" r:id="rId208"/>
-    <hyperlink ref="B229" r:id="rId209"/>
-    <hyperlink ref="B230" r:id="rId210"/>
-    <hyperlink ref="B231" r:id="rId211"/>
-    <hyperlink ref="B232" r:id="rId212"/>
-    <hyperlink ref="B233" r:id="rId213"/>
-    <hyperlink ref="B234" r:id="rId214"/>
-    <hyperlink ref="B235" r:id="rId215"/>
-    <hyperlink ref="B238" r:id="rId216"/>
-    <hyperlink ref="B239" r:id="rId217"/>
-    <hyperlink ref="B240" r:id="rId218"/>
-    <hyperlink ref="B241" r:id="rId219"/>
-    <hyperlink ref="B242" r:id="rId220"/>
-    <hyperlink ref="B243" r:id="rId221"/>
-    <hyperlink ref="B244" r:id="rId222"/>
-    <hyperlink ref="B245" r:id="rId223"/>
-    <hyperlink ref="B246" r:id="rId224"/>
-    <hyperlink ref="B247" r:id="rId225"/>
-    <hyperlink ref="B248" r:id="rId226"/>
-    <hyperlink ref="B249" r:id="rId227"/>
-    <hyperlink ref="B250" r:id="rId228"/>
-    <hyperlink ref="B251" r:id="rId229"/>
-    <hyperlink ref="B252" r:id="rId230"/>
-    <hyperlink ref="B253" r:id="rId231"/>
-    <hyperlink ref="B254" r:id="rId232"/>
-    <hyperlink ref="B255" r:id="rId233"/>
-    <hyperlink ref="B256" r:id="rId234"/>
-    <hyperlink ref="B257" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S."/>
-    <hyperlink ref="B258" r:id="rId236"/>
-    <hyperlink ref="B259" r:id="rId237"/>
-    <hyperlink ref="B260" r:id="rId238"/>
-    <hyperlink ref="B261" r:id="rId239"/>
-    <hyperlink ref="B262" r:id="rId240"/>
-    <hyperlink ref="B263" r:id="rId241"/>
-    <hyperlink ref="B264" r:id="rId242"/>
-    <hyperlink ref="B265" r:id="rId243"/>
-    <hyperlink ref="B266" r:id="rId244"/>
-    <hyperlink ref="B267" r:id="rId245"/>
-    <hyperlink ref="B268" r:id="rId246"/>
-    <hyperlink ref="B269" r:id="rId247"/>
-    <hyperlink ref="B270" r:id="rId248"/>
-    <hyperlink ref="B271" r:id="rId249"/>
-    <hyperlink ref="B272" r:id="rId250"/>
-    <hyperlink ref="B275" r:id="rId251"/>
-    <hyperlink ref="B276" r:id="rId252"/>
-    <hyperlink ref="B277" r:id="rId253"/>
-    <hyperlink ref="B278" r:id="rId254"/>
-    <hyperlink ref="B279" r:id="rId255"/>
-    <hyperlink ref="B280" r:id="rId256"/>
-    <hyperlink ref="B281" r:id="rId257"/>
-    <hyperlink ref="B282" r:id="rId258"/>
-    <hyperlink ref="B283" r:id="rId259"/>
-    <hyperlink ref="B284" r:id="rId260"/>
-    <hyperlink ref="B285" r:id="rId261"/>
-    <hyperlink ref="B286" r:id="rId262"/>
-    <hyperlink ref="B287" r:id="rId263"/>
-    <hyperlink ref="B288" r:id="rId264"/>
-    <hyperlink ref="B289" r:id="rId265"/>
-    <hyperlink ref="B290" r:id="rId266"/>
-    <hyperlink ref="B291" r:id="rId267"/>
-    <hyperlink ref="B292" r:id="rId268"/>
-    <hyperlink ref="B293" r:id="rId269"/>
-    <hyperlink ref="B296" r:id="rId270"/>
-    <hyperlink ref="B297" r:id="rId271"/>
-    <hyperlink ref="B298" r:id="rId272"/>
-    <hyperlink ref="B299" r:id="rId273"/>
-    <hyperlink ref="B300" r:id="rId274"/>
-    <hyperlink ref="B301" r:id="rId275"/>
-    <hyperlink ref="B302" r:id="rId276"/>
-    <hyperlink ref="B303" r:id="rId277"/>
-    <hyperlink ref="B304" r:id="rId278"/>
-    <hyperlink ref="B305" r:id="rId279"/>
-    <hyperlink ref="B306" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)."/>
-    <hyperlink ref="B307" r:id="rId281"/>
-    <hyperlink ref="B308" r:id="rId282"/>
-    <hyperlink ref="B309" r:id="rId283"/>
-    <hyperlink ref="B310" r:id="rId284"/>
-    <hyperlink ref="B311" r:id="rId285"/>
-    <hyperlink ref="B312" r:id="rId286"/>
-    <hyperlink ref="B313" r:id="rId287"/>
-    <hyperlink ref="B314" r:id="rId288"/>
-    <hyperlink ref="B315" r:id="rId289"/>
-    <hyperlink ref="B316" r:id="rId290"/>
-    <hyperlink ref="B317" r:id="rId291"/>
-    <hyperlink ref="B318" r:id="rId292"/>
-    <hyperlink ref="B319" r:id="rId293"/>
-    <hyperlink ref="B320" r:id="rId294"/>
-    <hyperlink ref="B321" r:id="rId295"/>
-    <hyperlink ref="B322" r:id="rId296"/>
-    <hyperlink ref="B323" r:id="rId297"/>
-    <hyperlink ref="B324" r:id="rId298"/>
-    <hyperlink ref="B325" r:id="rId299"/>
-    <hyperlink ref="B326" r:id="rId300"/>
-    <hyperlink ref="B327" r:id="rId301"/>
-    <hyperlink ref="B328" r:id="rId302"/>
-    <hyperlink ref="B329" r:id="rId303"/>
-    <hyperlink ref="B330" r:id="rId304"/>
-    <hyperlink ref="B331" r:id="rId305"/>
-    <hyperlink ref="B332" r:id="rId306"/>
-    <hyperlink ref="B333" r:id="rId307"/>
-    <hyperlink ref="B336" r:id="rId308"/>
-    <hyperlink ref="B337" r:id="rId309"/>
-    <hyperlink ref="B338" r:id="rId310"/>
-    <hyperlink ref="B339" r:id="rId311"/>
-    <hyperlink ref="B340" r:id="rId312"/>
-    <hyperlink ref="B341" r:id="rId313"/>
-    <hyperlink ref="B342" r:id="rId314"/>
-    <hyperlink ref="B343" r:id="rId315"/>
-    <hyperlink ref="B344" r:id="rId316"/>
-    <hyperlink ref="B345" r:id="rId317"/>
-    <hyperlink ref="B346" r:id="rId318"/>
-    <hyperlink ref="B347" r:id="rId319"/>
-    <hyperlink ref="B348" r:id="rId320"/>
-    <hyperlink ref="B349" r:id="rId321"/>
-    <hyperlink ref="B350" r:id="rId322"/>
-    <hyperlink ref="B351" r:id="rId323"/>
-    <hyperlink ref="B352" r:id="rId324"/>
-    <hyperlink ref="B353" r:id="rId325"/>
-    <hyperlink ref="B357" r:id="rId326"/>
-    <hyperlink ref="B358" r:id="rId327"/>
-    <hyperlink ref="B359" r:id="rId328"/>
-    <hyperlink ref="B360" r:id="rId329"/>
-    <hyperlink ref="B361" r:id="rId330"/>
-    <hyperlink ref="B362" r:id="rId331"/>
-    <hyperlink ref="B363" r:id="rId332"/>
-    <hyperlink ref="B364" r:id="rId333"/>
-    <hyperlink ref="B365" r:id="rId334"/>
-    <hyperlink ref="B366" r:id="rId335"/>
-    <hyperlink ref="B367" r:id="rId336"/>
-    <hyperlink ref="B368" r:id="rId337"/>
-    <hyperlink ref="B369" r:id="rId338"/>
-    <hyperlink ref="B370" r:id="rId339"/>
-    <hyperlink ref="B371" r:id="rId340"/>
-    <hyperlink ref="B372" r:id="rId341"/>
-    <hyperlink ref="B373" r:id="rId342"/>
-    <hyperlink ref="B374" r:id="rId343"/>
-    <hyperlink ref="B375" r:id="rId344"/>
-    <hyperlink ref="B376" r:id="rId345"/>
-    <hyperlink ref="B377" r:id="rId346"/>
-    <hyperlink ref="B378" r:id="rId347"/>
-    <hyperlink ref="B379" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color."/>
-    <hyperlink ref="B380" r:id="rId349"/>
-    <hyperlink ref="B381" r:id="rId350"/>
-    <hyperlink ref="B382" r:id="rId351"/>
-    <hyperlink ref="B383" r:id="rId352"/>
-    <hyperlink ref="B384" r:id="rId353"/>
-    <hyperlink ref="B385" r:id="rId354"/>
-    <hyperlink ref="B386" r:id="rId355"/>
-    <hyperlink ref="B387" r:id="rId356"/>
-    <hyperlink ref="B388" r:id="rId357"/>
-    <hyperlink ref="B389" r:id="rId358"/>
-    <hyperlink ref="B390" r:id="rId359"/>
-    <hyperlink ref="B391" r:id="rId360"/>
-    <hyperlink ref="B392" r:id="rId361"/>
-    <hyperlink ref="B393" r:id="rId362"/>
-    <hyperlink ref="B394" r:id="rId363"/>
-    <hyperlink ref="B396" r:id="rId364"/>
-    <hyperlink ref="B395" r:id="rId365"/>
-    <hyperlink ref="B397" r:id="rId366"/>
-    <hyperlink ref="B398" r:id="rId367"/>
-    <hyperlink ref="B399" r:id="rId368"/>
-    <hyperlink ref="B402" r:id="rId369"/>
-    <hyperlink ref="B403" r:id="rId370"/>
-    <hyperlink ref="B404" r:id="rId371"/>
-    <hyperlink ref="B405" r:id="rId372"/>
-    <hyperlink ref="B406" r:id="rId373"/>
-    <hyperlink ref="B407" r:id="rId374"/>
-    <hyperlink ref="B410" r:id="rId375"/>
-    <hyperlink ref="B411" r:id="rId376"/>
-    <hyperlink ref="B412" r:id="rId377"/>
-    <hyperlink ref="B413" r:id="rId378"/>
-    <hyperlink ref="B414" r:id="rId379"/>
-    <hyperlink ref="B415" r:id="rId380"/>
-    <hyperlink ref="B416" r:id="rId381"/>
-    <hyperlink ref="B417" r:id="rId382"/>
-    <hyperlink ref="B418" r:id="rId383"/>
-    <hyperlink ref="B419" r:id="rId384"/>
-    <hyperlink ref="B420" r:id="rId385"/>
-    <hyperlink ref="B421" r:id="rId386"/>
-    <hyperlink ref="B422" r:id="rId387"/>
-    <hyperlink ref="B423" r:id="rId388"/>
-    <hyperlink ref="B424" r:id="rId389"/>
-    <hyperlink ref="B425" r:id="rId390"/>
-    <hyperlink ref="B426" r:id="rId391"/>
-    <hyperlink ref="B427" r:id="rId392"/>
-    <hyperlink ref="B428" r:id="rId393"/>
-    <hyperlink ref="B429" r:id="rId394"/>
-    <hyperlink ref="B430" r:id="rId395"/>
-    <hyperlink ref="B431" r:id="rId396"/>
-    <hyperlink ref="B432" r:id="rId397"/>
-    <hyperlink ref="B433" r:id="rId398"/>
-    <hyperlink ref="B434" r:id="rId399"/>
-    <hyperlink ref="B435" r:id="rId400"/>
-    <hyperlink ref="B436" r:id="rId401"/>
-    <hyperlink ref="B437" r:id="rId402"/>
-    <hyperlink ref="B438" r:id="rId403"/>
-    <hyperlink ref="B439" r:id="rId404"/>
-    <hyperlink ref="B440" r:id="rId405"/>
-    <hyperlink ref="B441" r:id="rId406"/>
-    <hyperlink ref="B442" r:id="rId407"/>
-    <hyperlink ref="B443" r:id="rId408"/>
-    <hyperlink ref="B444" r:id="rId409"/>
-    <hyperlink ref="B445" r:id="rId410"/>
-    <hyperlink ref="B446" r:id="rId411"/>
-    <hyperlink ref="B447" r:id="rId412"/>
-    <hyperlink ref="B448" r:id="rId413"/>
-    <hyperlink ref="B449" r:id="rId414"/>
-    <hyperlink ref="B451" r:id="rId415"/>
-    <hyperlink ref="B450" r:id="rId416"/>
-    <hyperlink ref="B452" r:id="rId417"/>
-    <hyperlink ref="B453" r:id="rId418"/>
-    <hyperlink ref="B454" r:id="rId419"/>
-    <hyperlink ref="B455" r:id="rId420"/>
-    <hyperlink ref="B456" r:id="rId421"/>
-    <hyperlink ref="B457" r:id="rId422"/>
-    <hyperlink ref="B458" r:id="rId423"/>
-    <hyperlink ref="B459" r:id="rId424"/>
-    <hyperlink ref="B460" r:id="rId425"/>
-    <hyperlink ref="B461" r:id="rId426"/>
-    <hyperlink ref="B462" r:id="rId427"/>
-    <hyperlink ref="B469" r:id="rId428"/>
-    <hyperlink ref="B468" r:id="rId429"/>
-    <hyperlink ref="B467" r:id="rId430"/>
-    <hyperlink ref="B466" r:id="rId431"/>
-    <hyperlink ref="B465" r:id="rId432"/>
-    <hyperlink ref="B464" r:id="rId433"/>
-    <hyperlink ref="B463" r:id="rId434"/>
-    <hyperlink ref="B472" r:id="rId435"/>
-    <hyperlink ref="B473" r:id="rId436"/>
-    <hyperlink ref="B474" r:id="rId437"/>
-    <hyperlink ref="B475" r:id="rId438"/>
-    <hyperlink ref="B476" r:id="rId439"/>
-    <hyperlink ref="B477" r:id="rId440"/>
-    <hyperlink ref="B478" r:id="rId441"/>
-    <hyperlink ref="B481" r:id="rId442"/>
-    <hyperlink ref="B479" r:id="rId443"/>
-    <hyperlink ref="B480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result."/>
-    <hyperlink ref="B356" r:id="rId445"/>
-    <hyperlink ref="B2" r:id="rId446"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B11" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B12" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B14" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B16" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B17" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B18" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B19" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B23" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B24" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B25" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B26" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B27" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B28" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B29" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B30" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B32" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B33" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B34" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B35" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B36" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B37" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B38" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B39" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B40" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B41" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B44" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B45" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B46" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B47" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B48" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B49" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B50" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B51" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B52" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B53" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B56" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B57" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B58" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B60" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B61" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B62" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B63" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B64" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B65" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B66" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B67" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B68" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B69" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B70" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B71" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B72" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B73" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B74" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B75" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B76" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B77" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B78" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B79" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B80" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B81" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B82" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B83" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B84" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B85" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B86" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B87" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B88" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B89" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B90" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B91" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B92" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B93" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B94" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B95" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B96" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B97" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B98" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B101" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B102" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B103" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B104" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B106" r:id="rId93" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B107" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B108" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B109" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B110" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B111" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B113" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B114" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B115" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B116" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B117" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B118" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B119" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B120" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B121" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B122" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B123" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B124" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B125" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B126" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B127" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B128" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B129" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B130" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B131" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B132" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B133" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B134" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B135" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B136" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B105" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B112" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B139" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B140" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B141" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B142" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B143" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B144" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B145" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B146" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B147" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B148" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B149" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B150" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B151" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B152" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B153" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B154" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B155" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B156" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B157" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B158" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B159" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B160" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B161" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B162" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B163" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B166" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B167" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B168" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B169" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B170" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B171" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B172" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B173" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B174" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B177" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B178" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B179" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B180" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B181" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B182" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B183" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B184" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B185" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B186" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B187" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B188" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B189" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B190" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B191" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B192" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B193" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B194" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B195" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B196" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B197" r:id="rId179" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B198" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B199" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B200" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B201" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B202" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B203" r:id="rId185" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B204" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B205" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B206" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B207" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B208" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B209" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B210" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B211" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B214" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B215" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B216" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B217" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B218" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B219" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B220" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B221" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B222" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B223" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B224" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B225" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B226" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B227" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B228" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B229" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B230" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B231" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B232" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B233" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B234" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B235" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B238" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B239" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B240" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B241" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B242" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B243" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B244" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B245" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B246" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B247" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B248" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B249" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B250" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B251" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B252" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B253" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B254" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B255" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B256" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B257" r:id="rId235" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B258" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B259" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B260" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B261" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B262" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B263" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B264" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B265" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="B266" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B267" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B268" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B269" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B270" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B271" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B272" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B275" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="B276" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B277" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B278" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B279" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B280" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B281" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B282" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B283" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B284" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B285" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B286" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B287" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B288" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B289" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B290" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B291" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B292" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B293" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B296" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B297" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B298" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B299" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B300" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B301" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B302" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B303" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B304" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B305" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B306" r:id="rId280" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B307" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B308" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B309" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B310" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B311" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B312" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B313" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B314" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B315" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B316" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B317" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B318" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B319" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B320" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B321" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B322" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B323" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B324" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B325" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B326" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B327" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B328" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B329" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B330" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B331" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B332" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B333" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B336" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B337" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B338" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B339" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B340" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B341" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B342" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B343" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B344" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B345" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B346" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B347" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B348" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B349" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B350" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B351" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B352" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B353" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B357" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="B358" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="B359" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="B360" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="B361" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="B362" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="B363" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="B364" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="B365" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="B366" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="B367" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="B368" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="B369" r:id="rId338" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="B370" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="B371" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="B372" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="B373" r:id="rId342" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="B374" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="B375" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="B376" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="B377" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="B378" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="B379" r:id="rId348" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="B380" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="B381" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="B382" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="B383" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="B384" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="B385" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="B386" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="B387" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="B388" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="B389" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="B390" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="B391" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="B392" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="B393" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="B394" r:id="rId363" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="B396" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="B395" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="B397" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="B398" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="B399" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="B402" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="B403" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="B404" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="B405" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="B406" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="B407" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="B410" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="B411" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="B412" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="B413" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="B414" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="B415" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="B416" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="B417" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="B418" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="B419" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="B420" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="B421" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="B422" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="B423" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="B424" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="B425" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="B426" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="B427" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="B428" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="B429" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="B430" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="B431" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="B432" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="B433" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="B434" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="B435" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="B436" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="B437" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="B438" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="B439" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="B440" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="B441" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="B442" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="B443" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="B444" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="B445" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="B446" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="B447" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="B448" r:id="rId413" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="B449" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="B451" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="B450" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="B452" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="B453" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="B454" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="B455" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="B456" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="B457" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="B458" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="B459" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="B460" r:id="rId425" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="B461" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="B462" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="B469" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="B468" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="B467" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="B466" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="B465" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="B464" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="B463" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="B472" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="B473" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="B474" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="B475" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="B476" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="B477" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="B478" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="B481" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="B479" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="B480" r:id="rId444" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="B356" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="B2" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
